--- a/Table1/eta-squared calculation.xlsx
+++ b/Table1/eta-squared calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolinhe/TUDelft/OnlinePerceivedSafety/Submission/Table1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaolinhe\Documents\GitHub\Online-perceived-risk-study\Table1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC78F82-029A-DD44-846B-EDA751552DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FFB55-3A10-4DB8-AE98-DE300013C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{5A43059B-45A0-C946-BED7-5455AC93FAB7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{5A43059B-45A0-C946-BED7-5455AC93FAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="MB eta-squared" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="LC eta-squared" sheetId="3" r:id="rId3"/>
     <sheet name="SVM eta-squared" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
   <si>
     <r>
       <t>Type III Tests of Fixed Effects</t>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>ClipNumber * Lat_Cat * ACC_Cat * MergingDistance</t>
+  </si>
+  <si>
+    <t>eta-square</t>
   </si>
 </sst>
 </file>
@@ -599,13 +602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D94CDE-D32F-764F-BDC1-1DB340B81AD7}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,8 +632,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -647,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -668,7 +674,7 @@
         <v>0.57076781230188756</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -689,7 +695,7 @@
         <v>3.7687026189371429E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -710,7 +716,7 @@
         <v>1.6175253615398457E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -731,7 +737,7 @@
         <v>0.16923505457845833</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -748,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -765,7 +771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -782,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -799,7 +805,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -816,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -833,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -850,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -867,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -884,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -901,7 +907,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -918,7 +924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -933,17 +939,17 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -959,8 +965,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -977,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>0.4391341207870228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>2.3109967976985415E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>5.6725037441356027E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>0.32060495154581864</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1266,14 +1275,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1289,8 +1298,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>0.28901407350931013</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>4.975458885228266E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>6.9621147413745834E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>5.1696315028824658E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1544,7 +1556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1578,7 +1590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1592,18 +1604,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9485B163-E94B-774C-8FE9-0B87EA3378CD}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1619,8 +1631,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>0.44762213693345088</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +1694,7 @@
         <v>1.820227829399158E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>5.3834010429571833E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +1736,7 @@
         <v>0.13558076691635382</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1806,7 +1821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1823,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +1855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1874,7 +1889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1891,7 +1906,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1908,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
